--- a/ptgm.xlsx
+++ b/ptgm.xlsx
@@ -5,21 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="948" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Links" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Cities population and location" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Cities" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Industries" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="States population" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="States" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="413">
   <si>
     <t>nid</t>
   </si>
@@ -63,10 +63,13 @@
     <t>Mangla Hydro-Power-Plant</t>
   </si>
   <si>
+    <t>UCH Power Private Limited</t>
+  </si>
+  <si>
     <t>Lalpir &amp; Pakgen Thermal Station</t>
   </si>
   <si>
-    <t>Ghazi-Barotha Hydropower Project </t>
+    <t>Ghazi-Barotha Hydropower Project</t>
   </si>
   <si>
     <t>lid</t>
@@ -102,7 +105,7 @@
     <t>closest _substation_index</t>
   </si>
   <si>
-    <t>Abbottabad </t>
+    <t>Abbottabad</t>
   </si>
   <si>
     <t>KPK</t>
@@ -123,7 +126,7 @@
     <t>Alipur</t>
   </si>
   <si>
-    <t>Alipur Chatha </t>
+    <t>Alipur Chatha</t>
   </si>
   <si>
     <t>Amangarh</t>
@@ -234,7 +237,7 @@
     <t>Dera Ghazi Khan</t>
   </si>
   <si>
-    <t>Dera Ismail Khan </t>
+    <t>Dera Ismail Khan</t>
   </si>
   <si>
     <t>Dera Murad Jamali</t>
@@ -696,7 +699,7 @@
     <t>Phalia</t>
   </si>
   <si>
-    <t>Pindi Bhattan </t>
+    <t>Pindi Bhattan</t>
   </si>
   <si>
     <t>Pindi Gheb</t>
@@ -792,7 +795,7 @@
     <t>Shahdadpur</t>
   </si>
   <si>
-    <t>Shahkot </t>
+    <t>Shahkot</t>
   </si>
   <si>
     <t>Sharqpur</t>
@@ -873,7 +876,7 @@
     <t>Taxila Cantonment</t>
   </si>
   <si>
-    <t>Thal </t>
+    <t>Thal</t>
   </si>
   <si>
     <t>Thatta</t>
@@ -906,7 +909,7 @@
     <t>Umarkot</t>
   </si>
   <si>
-    <t>Usta Muhammad </t>
+    <t>Usta Muhammad</t>
   </si>
   <si>
     <t>Utmanzai</t>
@@ -945,7 +948,7 @@
     <t>Adam Motors Companies Limited</t>
   </si>
   <si>
-    <t>Al-Ghazi Tractor Company Limited </t>
+    <t>Al-Ghazi Tractor Company Limited</t>
   </si>
   <si>
     <t>Ghani Automibiles Company</t>
@@ -969,7 +972,7 @@
     <t>Pak Arak Fertilizer</t>
   </si>
   <si>
-    <t>Murree Brewery Company Limited </t>
+    <t>Murree Brewery Company Limited</t>
   </si>
   <si>
     <t>Beema Pakistan Company</t>
@@ -1005,7 +1008,7 @@
     <t>Allahwwasaya Textlie and Finishing mills</t>
   </si>
   <si>
-    <t>Ansari Sugar Mills Limited </t>
+    <t>Ansari Sugar Mills Limited</t>
   </si>
   <si>
     <t>Azgard 9 Limited</t>
@@ -1020,7 +1023,7 @@
     <t>Cass Pak Industries Ltd</t>
   </si>
   <si>
-    <t>Chenab Limited </t>
+    <t>Chenab Limited</t>
   </si>
   <si>
     <t>Altern Energy Limited</t>
@@ -1110,7 +1113,7 @@
     <t>Micronet Broadband</t>
   </si>
   <si>
-    <t>Zahid Latif Khan Securities </t>
+    <t>Zahid Latif Khan Securities</t>
   </si>
   <si>
     <t>ASD Securities Ltd</t>
@@ -1125,7 +1128,7 @@
     <t>Accord Textile Mills Ltd</t>
   </si>
   <si>
-    <t>Alif Textile Industries Limited </t>
+    <t>Alif Textile Industries Limited</t>
   </si>
   <si>
     <t>Ashfaq Textile Mills Limited</t>
@@ -1152,7 +1155,7 @@
     <t>Al-Zamin Leasing Modarba</t>
   </si>
   <si>
-    <t>Engro Polymer and Chemical Ltd </t>
+    <t>Engro Polymer and Chemical Ltd</t>
   </si>
   <si>
     <t>Gul Ahmad Textile Mills Ltd</t>
@@ -1182,7 +1185,7 @@
     <t>Usman Textile Mills Ltd</t>
   </si>
   <si>
-    <t>Deewan Cement </t>
+    <t>Deewan Cement</t>
   </si>
   <si>
     <t>ADOS Pakistan Ltd</t>
@@ -1243,9 +1246,6 @@
   </si>
   <si>
     <t>sid</t>
-  </si>
-  <si>
-    <t>division</t>
   </si>
   <si>
     <t>sindh</t>
@@ -1265,7 +1265,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1300,7 +1300,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -1309,43 +1309,47 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="2">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1357,8 +1361,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1375,7 +1379,7 @@
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>1094683559102.56</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>16090871455390.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>6603055341425.49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>1532534224894.82</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>980782250105.288</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>2022355541688.57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>3709817270220.78</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>5270045383353.29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>2487777686077.43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -1685,8 +1689,12 @@
         <f aca="false">(H11)/43281068</f>
         <v>0.00665845399193939</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="0" t="n">
+        <f aca="false">(74620000000000)*(I11)</f>
+        <v>496853836878.517</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>70135552107.9101</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>558936213866.072</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -1770,7 +1778,7 @@
         <v>842850721705.851</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -1798,7 +1806,7 @@
         <v>3488357540530.19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -1826,7 +1834,7 @@
         <v>885045842214.43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -1854,7 +1862,7 @@
         <v>3027585238423.41</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>128424954301.035</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -1910,7 +1918,7 @@
         <v>1620374348895.46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
@@ -1938,7 +1946,7 @@
         <v>205367172085.495</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -1972,21 +1980,27 @@
         <v>66544294609.3659</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>245155011</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>28.582053</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>68.179816</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>586</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>317646</v>
@@ -2000,7 +2014,7 @@
         <v>547646941614.287</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
@@ -2028,7 +2042,7 @@
         <v>138174623602.172</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -2056,7 +2070,7 @@
         <v>1084002886897.34</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
@@ -2084,7 +2098,7 @@
         <v>38893508357.9731</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
@@ -2112,7 +2126,7 @@
         <v>815361998922.947</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
@@ -2120,7 +2134,7 @@
         <v>245040712</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>11</v>
@@ -2146,7 +2160,7 @@
         <v>705581239815.986</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
@@ -2171,7 +2185,7 @@
         <v>468734101016.177</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
@@ -2179,7 +2193,7 @@
         <v>245064843</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>11</v>
@@ -2205,7 +2219,7 @@
         <v>787262952014.031</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
@@ -2233,7 +2247,7 @@
         <v>498446886292.177</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
@@ -2258,7 +2272,7 @@
         <v>204360309685.519</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
@@ -2286,7 +2300,7 @@
         <v>8729874581191.02</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
@@ -2311,7 +2325,7 @@
         <v>258780877588.326</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
@@ -2336,7 +2350,7 @@
         <v>1213603663384.65</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
@@ -2361,7 +2375,7 @@
         <v>67101172272.3663</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
@@ -2392,7 +2406,7 @@
         <v>680057967608.378</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
@@ -2420,7 +2434,7 @@
         <v>2907101394078.35</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
@@ -2445,7 +2459,7 @@
         <v>1430706644300</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
@@ -2470,7 +2484,7 @@
         <v>2177377869695.82</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
@@ -2485,6 +2499,9 @@
       </c>
       <c r="F40" s="0" t="n">
         <v>73.648835</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I40" s="0" t="n">
         <f aca="false">(H40)/43281068</f>
@@ -2495,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
@@ -2520,7 +2537,7 @@
         <v>684531953786.353</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="42">
       <c r="J42" s="0" t="n">
         <f aca="false">(74620000000000)*(I11)</f>
         <v>496853836878.517</v>
@@ -2529,7 +2546,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2544,8 +2561,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2560,33 +2577,33 @@
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2609,7 +2626,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -2632,7 +2649,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -2655,7 +2672,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -2678,7 +2695,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2701,7 +2718,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -2724,7 +2741,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -2747,7 +2764,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -2770,7 +2787,7 @@
         <v>287.2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -2793,7 +2810,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -2839,7 +2856,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -2862,7 +2879,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -2885,7 +2902,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -2908,7 +2925,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -2931,7 +2948,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -2954,7 +2971,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -2977,7 +2994,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
@@ -3023,7 +3040,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -3046,7 +3063,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
@@ -3069,7 +3086,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
@@ -3092,7 +3109,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -3115,7 +3132,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
@@ -3138,7 +3155,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
@@ -3161,7 +3178,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
@@ -3184,7 +3201,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
@@ -3207,7 +3224,7 @@
         <v>39.3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
@@ -3230,7 +3247,7 @@
         <v>296.89</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
@@ -3253,7 +3270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
@@ -3276,7 +3293,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
@@ -3299,7 +3316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
@@ -3322,7 +3339,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
@@ -3345,7 +3362,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
@@ -3368,7 +3385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
@@ -3391,7 +3408,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
@@ -3414,7 +3431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
@@ -3460,7 +3477,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
@@ -3483,7 +3500,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
@@ -3529,7 +3546,7 @@
         <v>39.7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
@@ -3552,7 +3569,7 @@
         <v>36.3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
@@ -3575,7 +3592,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
@@ -3598,7 +3615,7 @@
         <v>116.3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
@@ -3621,7 +3638,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
@@ -3667,7 +3684,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
@@ -3675,7 +3692,7 @@
         <v>248446797</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>39</v>
@@ -3687,7 +3704,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
@@ -3695,7 +3712,7 @@
         <v>248446796</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>39</v>
@@ -3707,7 +3724,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
@@ -3715,7 +3732,7 @@
         <v>248446795</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>39</v>
@@ -3727,7 +3744,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
@@ -3741,7 +3758,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
@@ -3755,7 +3772,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
@@ -3778,7 +3795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
@@ -3804,7 +3821,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3819,8 +3836,8 @@
   </sheetPr>
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3839,9 +3856,9 @@
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
@@ -3850,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -3859,24 +3876,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>105999</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>34.17</v>
@@ -3891,18 +3908,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>37821</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>30.55</v>
@@ -3917,18 +3934,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>96032</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>29.14</v>
@@ -3943,18 +3960,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>21110</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>30.86</v>
@@ -3969,18 +3986,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>29499</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>29.39</v>
@@ -3995,18 +4012,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>38991</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>32.266</v>
@@ -4021,18 +4038,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>21337</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>34.006</v>
@@ -4047,18 +4064,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>72392</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>30.294</v>
@@ -4073,18 +4090,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>69588</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>33.776</v>
@@ -4099,18 +4116,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>32376</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>27.3307</v>
@@ -4125,18 +4142,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>61302</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>24.663</v>
@@ -4151,18 +4168,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>109642</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>30.002</v>
@@ -4177,18 +4194,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>403408</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>29.385</v>
@@ -4203,18 +4220,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>46896</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>32.987</v>
@@ -4229,18 +4246,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>35852</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>30.576</v>
@@ -4255,18 +4272,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38222</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>34.605</v>
@@ -4281,18 +4298,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>54720</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>31.21</v>
@@ -4307,18 +4324,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>68343</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>31.536</v>
@@ -4333,18 +4350,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>61067</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>32.8166</v>
@@ -4359,18 +4376,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>31140</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>32.481</v>
@@ -4385,18 +4402,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>149857</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>30.1571</v>
@@ -4411,18 +4428,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>32413</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>30.752</v>
@@ -4437,18 +4454,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>31563</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>31.571</v>
@@ -4463,18 +4480,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>26004</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>30582</v>
@@ -4489,18 +4506,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>80620</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>32.936</v>
@@ -4515,18 +4532,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>65477</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>30916</v>
@@ -4541,18 +4558,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>84257</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>34.154</v>
@@ -4567,18 +4584,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>20016</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>32.345</v>
@@ -4593,18 +4610,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>72272</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>32.538</v>
@@ -4619,18 +4636,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>169282</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>31.728</v>
@@ -4645,18 +4662,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>101659</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>29.772</v>
@@ -4671,18 +4688,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>29940</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>35.84</v>
@@ -4697,18 +4714,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>57601</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>31.741</v>
@@ -4723,18 +4740,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>455552</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>30.967</v>
@@ -4749,18 +4766,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>98575</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>26.73</v>
@@ -4775,18 +4792,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>33400</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>28.044</v>
@@ -4801,18 +4818,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>101500</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>32.332</v>
@@ -4827,18 +4844,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>22387</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>32.874</v>
@@ -4853,18 +4870,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>37264</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>28.371</v>
@@ -4879,18 +4896,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>188149</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>30.049</v>
@@ -4905,18 +4922,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>90357</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>31.84</v>
@@ -4931,18 +4948,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>37766</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>28.54</v>
@@ -4957,18 +4974,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>26533</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>25.154</v>
@@ -4983,18 +5000,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>23298</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>31.217</v>
@@ -5009,18 +5026,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>38597</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>33.344</v>
@@ -5035,18 +5052,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>33186</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>32.641</v>
@@ -5061,18 +5078,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>55687</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>30.672</v>
@@ -5087,18 +5104,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>24776</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>35.203</v>
@@ -5113,18 +5130,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>41290</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>31.84</v>
@@ -5139,18 +5156,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>28875</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>29.804</v>
@@ -5165,18 +5182,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>1977246</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>31.454</v>
@@ -5191,18 +5208,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>21362</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>29.471</v>
@@ -5217,18 +5234,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>24973</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>33.565</v>
@@ -5243,18 +5260,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>23929</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>29.292</v>
@@ -5269,18 +5286,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>54223</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>31.666</v>
@@ -5295,18 +5312,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>34457</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>29.194</v>
@@ -5321,18 +5338,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>28335</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>27.35</v>
@@ -5347,18 +5364,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>24726</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>30.834</v>
@@ -5373,18 +5390,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>45476</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>32.299</v>
@@ -5399,18 +5416,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>24804</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>28.136</v>
@@ -5425,18 +5442,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="62">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>51401</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>28.003</v>
@@ -5451,18 +5468,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="63">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>114967</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>29.678</v>
@@ -5477,18 +5494,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="64">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>24073</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>28.431</v>
@@ -5503,18 +5520,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="65">
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>57152</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>33.255</v>
@@ -5529,18 +5546,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="66">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1124799</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>32.162</v>
@@ -5555,18 +5572,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="67">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>92808</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>32.163</v>
@@ -5581,18 +5598,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="68">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>250121</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>32.578</v>
@@ -5607,18 +5624,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="69">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>43850</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>25.199</v>
@@ -5633,18 +5650,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="70">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>39723</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>32.291</v>
@@ -5659,18 +5676,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="71">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>130216</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>32.069</v>
@@ -5685,18 +5702,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="72">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>39926</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>25.813</v>
@@ -5711,18 +5728,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="73">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>29986</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>33.53</v>
@@ -5737,18 +5754,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="74">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>47262</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>33.999</v>
@@ -5763,18 +5780,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="75">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>62702</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>29.613</v>
@@ -5789,18 +5806,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="76">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>37789</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>33.822</v>
@@ -5815,18 +5832,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="77">
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>69647</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>29.692</v>
@@ -5841,18 +5858,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="78">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>51741</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>30.452</v>
@@ -5867,18 +5884,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="79">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>22314</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>33.906</v>
@@ -5893,18 +5910,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="80">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>63757</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>24.993</v>
@@ -5919,18 +5936,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="81">
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>47719</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>30.738</v>
@@ -5945,18 +5962,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="82">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>1151274</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>25.38</v>
@@ -5971,18 +5988,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="83">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>529180</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>33.68</v>
@@ -5997,18 +6014,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="84">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>137733</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>28.284</v>
@@ -6023,18 +6040,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="85">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>30537</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>33.963</v>
@@ -6049,18 +6066,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="86">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>24677</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>31.805</v>
@@ -6075,18 +6092,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="87">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>68733</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>32.649</v>
@@ -6101,18 +6118,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="88">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>20986</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>32.644</v>
@@ -6127,18 +6144,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="89">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>31715</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>29.507</v>
@@ -6153,18 +6170,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="90">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>20134</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>32.387</v>
@@ -6179,18 +6196,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="91">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>51026</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>32.33</v>
@@ -6205,18 +6222,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="92">
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>103308</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>31.335</v>
@@ -6231,18 +6248,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="93">
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>38081</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>29.507</v>
@@ -6257,18 +6274,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="94">
       <c r="A94" s="0" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>39477</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>32.289</v>
@@ -6283,18 +6300,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="95">
       <c r="A95" s="0" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>292214</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>31.269</v>
@@ -6309,18 +6326,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="96">
       <c r="A96" s="0" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>23658</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>32.36</v>
@@ -6335,18 +6352,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="97">
       <c r="A97" s="0" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>145847</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>32.938</v>
@@ -6361,18 +6378,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="98">
       <c r="A98" s="0" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>21588</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>24.967</v>
@@ -6387,18 +6404,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="99">
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>46265</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>30.405</v>
@@ -6413,18 +6430,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="100">
       <c r="A100" s="0" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>38920</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>31.373</v>
@@ -6439,18 +6456,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="101">
       <c r="A101" s="0" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>58124</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>29.6356</v>
@@ -6465,18 +6482,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="102">
       <c r="A102" s="0" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>22559</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>29.029</v>
@@ -6491,18 +6508,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="103">
       <c r="A103" s="0" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>95291</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>30.725</v>
@@ -6517,18 +6534,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="104">
       <c r="A104" s="0" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>57230</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>27.5909</v>
@@ -6543,18 +6560,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="105">
       <c r="A105" s="0" t="n">
         <v>104</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>20401</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>30.428</v>
@@ -6569,18 +6586,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="106">
       <c r="A106" s="0" t="n">
         <v>105</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>150984</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>31.975</v>
@@ -6595,18 +6612,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="107">
       <c r="A107" s="0" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>37131</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>33.865</v>
@@ -6621,18 +6638,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="108">
       <c r="A108" s="0" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>22337</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>27.058</v>
@@ -6647,18 +6664,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="109">
       <c r="A109" s="0" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>9269265</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>24.988</v>
@@ -6673,18 +6690,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="110">
       <c r="A110" s="0" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>21742</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>31.224</v>
@@ -6699,18 +6716,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="111">
       <c r="A111" s="0" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>241649</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>31.119</v>
@@ -6725,18 +6742,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="112">
       <c r="A112" s="0" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>102188</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>27.517</v>
@@ -6751,18 +6768,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="113">
       <c r="A113" s="0" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>28108</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>28.436</v>
@@ -6777,18 +6794,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="114">
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>25236</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>27.089</v>
@@ -6803,18 +6820,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="115">
       <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>26265</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>29.58</v>
@@ -6829,18 +6846,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="116">
       <c r="A116" s="0" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>33938</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>34.075</v>
@@ -6855,18 +6872,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="117">
       <c r="A117" s="0" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>66727</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>28.244</v>
@@ -6881,18 +6898,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="118">
       <c r="A118" s="0" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>132962</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>30.299</v>
@@ -6907,18 +6924,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="119">
       <c r="A119" s="0" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>25711</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>29.925</v>
@@ -6933,18 +6950,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="120">
       <c r="A120" s="0" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>117764</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>28.646</v>
@@ -6959,18 +6976,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="121">
       <c r="A121" s="0" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>27029</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>33.112</v>
@@ -6985,18 +7002,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="122">
       <c r="A122" s="0" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>26057</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>28.413</v>
@@ -7011,18 +7028,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="123">
       <c r="A123" s="0" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>23553</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>32.81</v>
@@ -7037,18 +7054,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="124">
       <c r="A124" s="0" t="n">
         <v>123</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>48337</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>32.812</v>
@@ -7063,18 +7080,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="125">
       <c r="A125" s="0" t="n">
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>27667</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>32.634</v>
@@ -7089,18 +7106,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="126">
       <c r="A126" s="0" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>23939</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>25.826</v>
@@ -7115,18 +7132,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="127">
       <c r="A127" s="0" t="n">
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>25891</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>29.537</v>
@@ -7141,18 +7158,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="128">
       <c r="A128" s="0" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>29933</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>31.495</v>
@@ -7167,18 +7184,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="129">
       <c r="A129" s="0" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>87294</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>32.287</v>
@@ -7193,18 +7210,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="130">
       <c r="A130" s="0" t="n">
         <v>129</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>93060</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>27.809</v>
@@ -7219,18 +7236,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="131">
       <c r="A131" s="0" t="n">
         <v>130</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>125271</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>33.574</v>
@@ -7245,18 +7262,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="132">
       <c r="A132" s="0" t="n">
         <v>131</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>58827</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>31.622</v>
@@ -7271,18 +7288,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="133">
       <c r="A133" s="0" t="n">
         <v>132</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>79054</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>30.463</v>
@@ -7297,18 +7314,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="134">
       <c r="A134" s="0" t="n">
         <v>133</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>21345</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>27.341</v>
@@ -7323,18 +7340,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="135">
       <c r="A135" s="0" t="n">
         <v>134</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>34273</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>32.1879</v>
@@ -7349,18 +7366,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="136">
       <c r="A136" s="0" t="n">
         <v>135</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>38936</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>31.164</v>
@@ -7375,18 +7392,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="137">
       <c r="A137" s="0" t="n">
         <v>136</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>61130</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>25.354</v>
@@ -7401,18 +7418,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="138">
       <c r="A138" s="0" t="n">
         <v>137</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>22309</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>25.178</v>
@@ -7427,18 +7444,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="139">
       <c r="A139" s="0" t="n">
         <v>138</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>32607</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>32.454</v>
@@ -7453,18 +7470,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="140">
       <c r="A140" s="0" t="n">
         <v>139</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>23836</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>32.53</v>
@@ -7479,18 +7496,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="141">
       <c r="A141" s="0" t="n">
         <v>140</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>5063499</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>31.485</v>
@@ -7505,18 +7522,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="142">
       <c r="A142" s="0" t="n">
         <v>141</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>30186</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>32.606</v>
@@ -7531,18 +7548,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="143">
       <c r="A143" s="0" t="n">
         <v>142</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>59484</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>32.701</v>
@@ -7557,18 +7574,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="144">
       <c r="A144" s="0" t="n">
         <v>143</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>270366</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>27.559</v>
@@ -7583,18 +7600,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="145">
       <c r="A145" s="0" t="n">
         <v>144</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>70272</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>30.968</v>
@@ -7609,18 +7626,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="146">
       <c r="A146" s="0" t="n">
         <v>145</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>25244</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>30.174</v>
@@ -7635,18 +7652,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="147">
       <c r="A147" s="0" t="n">
         <v>146</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>31497</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>28.9377</v>
@@ -7661,18 +7678,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="148">
       <c r="A148" s="0" t="n">
         <v>147</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>64925</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>29.539</v>
@@ -7687,18 +7704,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="149">
       <c r="A149" s="0" t="n">
         <v>148</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>31925</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>30.377</v>
@@ -7713,18 +7730,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="150">
       <c r="A150" s="0" t="n">
         <v>149</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>33720</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>30.001</v>
@@ -7739,18 +7756,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="151">
       <c r="A151" s="0" t="n">
         <v>150</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>54099</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>29.802</v>
@@ -7765,18 +7782,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="152">
       <c r="A152" s="0" t="n">
         <v>151</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>30851</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>32.552</v>
@@ -7791,18 +7808,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="153">
       <c r="A153" s="0" t="n">
         <v>152</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>27068</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>30.825</v>
@@ -7817,18 +7834,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="154">
       <c r="A154" s="0" t="n">
         <v>153</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>24115</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>32.296</v>
@@ -7843,18 +7860,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="155">
       <c r="A155" s="0" t="n">
         <v>154</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>97340</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>32.574</v>
@@ -7869,18 +7886,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="156">
       <c r="A156" s="0" t="n">
         <v>155</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>52095</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>34.334</v>
@@ -7895,18 +7912,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="157">
       <c r="A157" s="0" t="n">
         <v>156</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>244511</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>34.194</v>
@@ -7921,18 +7938,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="158">
       <c r="A158" s="0" t="n">
         <v>157</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>24571</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>29.798</v>
@@ -7947,18 +7964,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="159">
       <c r="A159" s="0" t="n">
         <v>158</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>41995</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>25.05</v>
@@ -7973,18 +7990,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="160">
       <c r="A160" s="0" t="n">
         <v>159</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>25355</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>27.176</v>
@@ -7999,18 +8016,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="161">
       <c r="A161" s="0" t="n">
         <v>160</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>29383</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>27.1002</v>
@@ -8025,18 +8042,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="162">
       <c r="A162" s="0" t="n">
         <v>161</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>64261</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>30.438</v>
@@ -8051,18 +8068,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="163">
       <c r="A163" s="0" t="n">
         <v>162</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>79996</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>32.578</v>
@@ -8077,18 +8094,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="164">
       <c r="A164" s="0" t="n">
         <v>163</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>24811</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>30.161</v>
@@ -8103,18 +8120,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="165">
       <c r="A165" s="0" t="n">
         <v>164</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>174469</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>34.772</v>
@@ -8129,18 +8146,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="166">
       <c r="A166" s="0" t="n">
         <v>165</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>1844465</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>25.527</v>
@@ -8155,18 +8172,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="167">
       <c r="A167" s="0" t="n">
         <v>166</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>41089</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>28.021</v>
@@ -8181,18 +8198,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="168">
       <c r="A168" s="0" t="n">
         <v>167</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>23737</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>32.244</v>
@@ -8207,18 +8224,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="169">
       <c r="A169" s="0" t="n">
         <v>168</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>59321</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>26.664</v>
@@ -8233,18 +8250,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="170">
       <c r="A170" s="0" t="n">
         <v>169</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>1182441</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>30.203</v>
@@ -8259,18 +8276,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="171">
       <c r="A171" s="0" t="n">
         <v>170</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>1082441</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>31.804</v>
@@ -8285,18 +8302,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="172">
       <c r="A172" s="0" t="n">
         <v>171</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>21413</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>33.905</v>
@@ -8311,18 +8328,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="173">
       <c r="A173" s="0" t="n">
         <v>172</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>37048</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>31.553</v>
@@ -8337,18 +8354,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="174">
       <c r="A174" s="0" t="n">
         <v>173</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>121641</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>30.076</v>
@@ -8363,18 +8380,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="175">
       <c r="A175" s="0" t="n">
         <v>174</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>48723</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>31.449</v>
@@ -8389,18 +8406,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="176">
       <c r="A176" s="0" t="n">
         <v>175</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>29497</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>31.904</v>
@@ -8415,18 +8432,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="177">
       <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>57035</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>32.099</v>
@@ -8441,18 +8458,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="178">
       <c r="A178" s="0" t="n">
         <v>177</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>23172</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>31.455</v>
@@ -8467,18 +8484,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="179">
       <c r="A179" s="0" t="n">
         <v>178</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>27877</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>27.666</v>
@@ -8493,18 +8510,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="180">
       <c r="A180" s="0" t="n">
         <v>179</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>33845</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>31.963</v>
@@ -8519,18 +8536,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="181">
       <c r="A181" s="0" t="n">
         <v>180</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>183110</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>26.243</v>
@@ -8545,18 +8562,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="182">
       <c r="A182" s="0" t="n">
         <v>181</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>89428</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>34.00123</v>
@@ -8571,18 +8588,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="183">
       <c r="A183" s="0" t="n">
         <v>182</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>23386</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>29.554</v>
@@ -8597,18 +8614,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="184">
       <c r="A184" s="0" t="n">
         <v>183</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>200901</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>30.809</v>
@@ -8623,18 +8640,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="185">
       <c r="A185" s="0" t="n">
         <v>184</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>57423</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>30.891</v>
@@ -8649,18 +8666,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="186">
       <c r="A186" s="0" t="n">
         <v>185</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>30946</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>34.01</v>
@@ -8675,18 +8692,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="187">
       <c r="A187" s="0" t="n">
         <v>186</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>107791</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>30.344</v>
@@ -8701,18 +8718,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="188">
       <c r="A188" s="0" t="n">
         <v>187</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>40311</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>27.819</v>
@@ -8727,18 +8744,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="189">
       <c r="A189" s="0" t="n">
         <v>188</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>201418</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>27.845</v>
@@ -8753,18 +8770,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="190">
       <c r="A190" s="0" t="n">
         <v>189</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>27974</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>25.283</v>
@@ -8779,18 +8796,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="191">
       <c r="A191" s="0" t="n">
         <v>190</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>43960</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>32.2593</v>
@@ -8805,18 +8822,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="192">
       <c r="A192" s="0" t="n">
         <v>191</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>58264</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>31.023</v>
@@ -8831,18 +8848,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="193">
       <c r="A193" s="0" t="n">
         <v>192</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>988055</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>33.991</v>
@@ -8857,18 +8874,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="194">
       <c r="A194" s="0" t="n">
         <v>193</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>217025</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>32.426</v>
@@ -8883,18 +8900,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="195">
       <c r="A195" s="0" t="n">
         <v>194</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>29760</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>31.902</v>
@@ -8909,18 +8926,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="196">
       <c r="A196" s="0" t="n">
         <v>195</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>29837</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>33.242</v>
@@ -8935,18 +8952,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="197">
       <c r="A197" s="0" t="n">
         <v>196</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>29612</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>27.591</v>
@@ -8961,18 +8978,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="198">
       <c r="A198" s="0" t="n">
         <v>197</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>29976</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>33.647</v>
@@ -8987,18 +9004,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="199">
       <c r="A199" s="0" t="n">
         <v>198</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>20479</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>30.699</v>
@@ -9013,18 +9030,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="200">
       <c r="A200" s="0" t="n">
         <v>199</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>40943</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>32.133</v>
@@ -9039,18 +9056,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="201">
       <c r="A201" s="0" t="n">
         <v>200</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>560307</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>30.179</v>
@@ -9065,18 +9082,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="202">
       <c r="A202" s="0" t="n">
         <v>201</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>42844</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>31.755</v>
@@ -9091,18 +9108,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="203">
       <c r="A203" s="0" t="n">
         <v>202</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>228479</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>28.414</v>
@@ -9117,18 +9134,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="204">
       <c r="A204" s="0" t="n">
         <v>203</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>26759</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>31.244</v>
@@ -9143,18 +9160,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="205">
       <c r="A205" s="0" t="n">
         <v>204</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>20701</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>31.218</v>
@@ -9169,18 +9186,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="206">
       <c r="A206" s="0" t="n">
         <v>205</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>39846</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>27.801</v>
@@ -9195,18 +9212,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="207">
       <c r="A207" s="0" t="n">
         <v>206</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>42986</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>29.585</v>
@@ -9221,18 +9238,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="208">
       <c r="A208" s="0" t="n">
         <v>207</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>1406214</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>33.566</v>
@@ -9247,18 +9264,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="209">
       <c r="A209" s="0" t="n">
         <v>208</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>31476</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>30.88</v>
@@ -9273,18 +9290,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="210">
       <c r="A210" s="0" t="n">
         <v>209</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>31259</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>34.072</v>
@@ -9299,18 +9316,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="211">
       <c r="A211" s="0" t="n">
         <v>210</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>44143</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>27.679</v>
@@ -9325,18 +9342,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="212">
       <c r="A212" s="0" t="n">
         <v>211</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>141509</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>28.303</v>
@@ -9351,18 +9368,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="213">
       <c r="A213" s="0" t="n">
         <v>212</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>20074</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>31.728</v>
@@ -9377,18 +9394,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="214">
       <c r="A214" s="0" t="n">
         <v>213</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>207388</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>30.66</v>
@@ -9403,18 +9420,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="215">
       <c r="A215" s="0" t="n">
         <v>214</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>26356</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>26.139</v>
@@ -9429,18 +9446,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="216">
       <c r="A216" s="0" t="n">
         <v>215</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>20664</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>29.344</v>
@@ -9455,18 +9472,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="217">
       <c r="A217" s="0" t="n">
         <v>216</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>48696</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>32.479</v>
@@ -9481,18 +9498,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="218">
       <c r="A218" s="0" t="n">
         <v>217</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>54106</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>31.062</v>
@@ -9507,18 +9524,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="219">
       <c r="A219" s="0" t="n">
         <v>218</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>50259</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>26.043</v>
@@ -9533,18 +9550,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="220">
       <c r="A220" s="0" t="n">
         <v>219</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>49445</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>31.717</v>
@@ -9559,18 +9576,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="221">
       <c r="A221" s="0" t="n">
         <v>220</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>37262</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>32.903</v>
@@ -9585,18 +9602,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="222">
       <c r="A222" s="0" t="n">
         <v>221</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>455360</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>32.067</v>
@@ -9611,18 +9628,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="223">
       <c r="A223" s="0" t="n">
         <v>222</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>34289</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>26.417</v>
@@ -9637,18 +9654,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="224">
       <c r="A224" s="0" t="n">
         <v>223</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>27207</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>25.967</v>
@@ -9663,18 +9680,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="225">
       <c r="A225" s="0" t="n">
         <v>224</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>53597</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>34.216</v>
@@ -9689,18 +9706,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="226">
       <c r="A226" s="0" t="n">
         <v>225</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>58802</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>25.923</v>
@@ -9715,18 +9732,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="227">
       <c r="A227" s="0" t="n">
         <v>226</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>39744</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>31.576</v>
@@ -9741,18 +9758,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="228">
       <c r="A228" s="0" t="n">
         <v>227</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>27018</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>31.465</v>
@@ -9767,18 +9784,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="229">
       <c r="A229" s="0" t="n">
         <v>228</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>271875</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>31.71</v>
@@ -9793,18 +9810,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="230">
       <c r="A230" s="0" t="n">
         <v>229</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>26707</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>30.833</v>
@@ -9819,18 +9836,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="231">
       <c r="A231" s="0" t="n">
         <v>230</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>25082</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>30.835</v>
@@ -9845,18 +9862,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="232">
       <c r="A232" s="0" t="n">
         <v>231</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>56706</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>29.876</v>
@@ -9871,18 +9888,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="233">
       <c r="A233" s="0" t="n">
         <v>232</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>417597</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>32.495</v>
@@ -9897,18 +9914,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="234">
       <c r="A234" s="0" t="n">
         <v>233</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>48219</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>29.551</v>
@@ -9923,18 +9940,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="235">
       <c r="A235" s="0" t="n">
         <v>234</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>22920</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>31.822</v>
@@ -9949,18 +9966,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="236">
       <c r="A236" s="0" t="n">
         <v>235</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>22987</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>27.042</v>
@@ -9975,18 +9992,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="237">
       <c r="A237" s="0" t="n">
         <v>236</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>22996</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>24.604</v>
@@ -10001,18 +10018,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="238">
       <c r="A238" s="0" t="n">
         <v>237</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>329176</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>27.712</v>
@@ -10027,18 +10044,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="239">
       <c r="A239" s="0" t="n">
         <v>238</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>27850</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>31.864</v>
@@ -10053,18 +10070,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="240">
       <c r="A240" s="0" t="n">
         <v>239</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>78960</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>34.119</v>
@@ -10079,18 +10096,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="241">
       <c r="A241" s="0" t="n">
         <v>240</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>49425</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>34.284</v>
@@ -10105,18 +10122,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="242">
       <c r="A242" s="0" t="n">
         <v>241</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>36533</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>32.927</v>
@@ -10131,18 +10148,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="243">
       <c r="A243" s="0" t="n">
         <v>242</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>23876</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>30.525</v>
@@ -10157,18 +10174,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="244">
       <c r="A244" s="0" t="n">
         <v>243</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>33838</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>31.032</v>
@@ -10183,18 +10200,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="245">
       <c r="A245" s="0" t="n">
         <v>244</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>103363</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>25.767</v>
@@ -10209,18 +10226,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="246">
       <c r="A246" s="0" t="n">
         <v>245</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>86056</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>25.46</v>
@@ -10235,18 +10252,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="247">
       <c r="A247" s="0" t="n">
         <v>246</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>26341</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>25.43</v>
@@ -10261,18 +10278,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="248">
       <c r="A248" s="0" t="n">
         <v>247</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>62087</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>25.122</v>
@@ -10287,18 +10304,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="249">
       <c r="A249" s="0" t="n">
         <v>248</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>24424</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>34.3</v>
@@ -10313,18 +10330,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="250">
       <c r="A250" s="0" t="n">
         <v>249</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>33930</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>32.21</v>
@@ -10339,18 +10356,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="251">
       <c r="A251" s="0" t="n">
         <v>250</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>38056</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>30.706</v>
@@ -10365,18 +10382,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="252">
       <c r="A252" s="0" t="n">
         <v>251</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>48115</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>33.752</v>
@@ -10391,18 +10408,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="253">
       <c r="A253" s="0" t="n">
         <v>252</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>23653</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>33.726</v>
@@ -10417,18 +10434,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="254">
       <c r="A254" s="0" t="n">
         <v>253</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>24330</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E254" s="0" t="n">
         <v>33.365</v>
@@ -10443,18 +10460,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="255">
       <c r="A255" s="0" t="n">
         <v>254</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>36915</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E255" s="0" t="n">
         <v>24.747</v>
@@ -10469,18 +10486,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="256">
       <c r="A256" s="0" t="n">
         <v>255</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C256" s="0" t="n">
         <v>28724</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E256" s="0" t="n">
         <v>28.235</v>
@@ -10495,18 +10512,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="257">
       <c r="A257" s="0" t="n">
         <v>256</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>43774</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E257" s="0" t="n">
         <v>34.828</v>
@@ -10521,18 +10538,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="258">
       <c r="A258" s="0" t="n">
         <v>257</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>58665</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E258" s="0" t="n">
         <v>30.968</v>
@@ -10547,18 +10564,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="259">
       <c r="A259" s="0" t="n">
         <v>258</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>30144</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E259" s="0" t="n">
         <v>34.069</v>
@@ -10573,18 +10590,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="260">
       <c r="A260" s="0" t="n">
         <v>259</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>27574</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E260" s="0" t="n">
         <v>33.989</v>
@@ -10599,18 +10616,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="261">
       <c r="A261" s="0" t="n">
         <v>260</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>20400</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G261" s="0" t="n">
         <v>7669.21658724493</v>
@@ -10619,18 +10636,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="262">
       <c r="A262" s="0" t="n">
         <v>261</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>67905</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E262" s="0" t="n">
         <v>26.005</v>
@@ -10645,18 +10662,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="263">
       <c r="A263" s="0" t="n">
         <v>262</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>20350</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E263" s="0" t="n">
         <v>29.233</v>
@@ -10671,18 +10688,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="264">
       <c r="A264" s="0" t="n">
         <v>263</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>35059</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E264" s="0" t="n">
         <v>25.362</v>
@@ -10697,18 +10714,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="265">
       <c r="A265" s="0" t="n">
         <v>264</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>37160</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E265" s="0" t="n">
         <v>28.178</v>
@@ -10723,18 +10740,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="266">
       <c r="A266" s="0" t="n">
         <v>265</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>24406</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E266" s="0" t="n">
         <v>34.19</v>
@@ -10749,18 +10766,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="267">
       <c r="A267" s="0" t="n">
         <v>266</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>92334</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E267" s="0" t="n">
         <v>30.049</v>
@@ -10775,18 +10792,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="268">
       <c r="A268" s="0" t="n">
         <v>267</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>198431</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E268" s="0" t="n">
         <v>33.769</v>
@@ -10801,18 +10818,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="269">
       <c r="A269" s="0" t="n">
         <v>268</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>20606</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E269" s="0" t="n">
         <v>31.539</v>
@@ -10827,18 +10844,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="270">
       <c r="A270" s="0" t="n">
         <v>269</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>89652</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E270" s="0" t="n">
         <v>32.429</v>
@@ -10853,18 +10870,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="271">
       <c r="A271" s="0" t="n">
         <v>270</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>208848</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E271" s="0" t="n">
         <v>28.74688</v>
@@ -10879,18 +10896,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="272">
       <c r="A272" s="0" t="n">
         <v>271</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>28940</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E272" s="0" t="n">
         <v>28.81</v>
@@ -10905,18 +10922,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="273">
       <c r="A273" s="0" t="n">
         <v>272</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>22220</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E273" s="0" t="n">
         <v>34.057</v>
@@ -10934,7 +10951,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10949,8 +10966,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10962,1406 +10979,1406 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="63">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="69">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="71">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="72">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="73">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="74">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="75">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="76">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="77">
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="78">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="79">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="80">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="81">
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="82">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="83">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="84">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="85">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="86">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="87">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="88">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="89">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="90">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="91">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92">
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="93">
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="94">
       <c r="A94" s="0" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95">
       <c r="A95" s="0" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96">
       <c r="A96" s="0" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97">
       <c r="A97" s="0" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98">
       <c r="A98" s="0" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99">
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100">
       <c r="A100" s="0" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101">
       <c r="A101" s="0" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>31</v>
@@ -12370,7 +12387,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12385,8 +12402,8 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12397,40 +12414,40 @@
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>408</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>7914000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>101000000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -12441,18 +12458,18 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>28000000</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -12463,7 +12480,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -12474,7 +12491,7 @@
         <v>3176331</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -12485,18 +12502,18 @@
         <v>4567982</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1151868</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="14">
       <c r="U14" s="0" t="n">
         <v>42</v>
       </c>
@@ -12504,7 +12521,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
